--- a/Data1.xlsx
+++ b/Data1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenny\Documents\Screenplay\OrangeHRM_TestAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenny\Documents\GitHub\test-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE588BD2-494C-430E-84A3-460AF235FFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D93412-9406-4559-8FAF-E74384D9EFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{43726B71-DC08-4DC3-B559-A292091C85E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{43726B71-DC08-4DC3-B559-A292091C85E0}"/>
   </bookViews>
   <sheets>
     <sheet name="DatosLogin" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Usuario</t>
   </si>
@@ -82,13 +82,25 @@
   </si>
   <si>
     <t>1Andres1234</t>
+  </si>
+  <si>
+    <t>1Manu1234</t>
+  </si>
+  <si>
+    <t>1Castaneda1234</t>
+  </si>
+  <si>
+    <t>Username1</t>
+  </si>
+  <si>
+    <t>Validacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +126,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -534,20 +552,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5513589-5F33-4814-98D8-9721CA9186AA}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -557,8 +576,14 @@
       <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -568,8 +593,14 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -579,8 +610,15 @@
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data1.xlsx
+++ b/Data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenny\Documents\GitHub\test-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D93412-9406-4559-8FAF-E74384D9EFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8D9C4E-A1B6-48F7-8916-290FB5F7F9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{43726B71-DC08-4DC3-B559-A292091C85E0}"/>
   </bookViews>
